--- a/County_Daily_Wages_2025.xlsx
+++ b/County_Daily_Wages_2025.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/Common_Health/Measles_USA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0E30973-5F1D-425F-A2CB-0E09D36A9D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D0E30973-5F1D-425F-A2CB-0E09D36A9D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D61917E8-4794-4089-9222-5D4C2BC46F65}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10B5F327-0C39-4EC5-96EB-EDB669DA7705}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{10B5F327-0C39-4EC5-96EB-EDB669DA7705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly_Wages" sheetId="2" r:id="rId1"/>
     <sheet name="Source" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4410,7 +4423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4541,6 +4554,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4843,7 +4864,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -4886,12 +4907,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4925,6 +4948,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -5267,8 +5291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1527DA34-45C0-41A4-A530-C60F4A558D87}">
   <dimension ref="A1:E4452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4425" workbookViewId="0">
-      <selection activeCell="C4449" sqref="C4449"/>
+    <sheetView topLeftCell="A2082" workbookViewId="0">
+      <selection activeCell="C2106" sqref="C2106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89874,16 +89898,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189DECF6-4E72-465D-8611-33B56CDDB14D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="type=1&amp;year=2024&amp;qtr=A&amp;own=0&amp;ind=10&amp;supp=0" xr:uid="{15BA2542-495C-4D3C-AFF2-1F56E026784A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>